--- a/src/test/resources/Test Cases.xlsx
+++ b/src/test/resources/Test Cases.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lokesh/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lokesh/IdeaProjects/FxApiBddTests/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="22120" windowHeight="17600" tabRatio="500" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="22120" windowHeight="17600" tabRatio="500" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -664,198 +664,6 @@
 Negative Edge Case - Non-Default base currency &amp; 32 symbol currencies where 32nd symbol currency is invalid</t>
   </si>
   <si>
-    <t>User calls /latest API path with below details
-Positive - Empty(Default) base currency, default symbol currency and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Positive - Empty(Default) base currency, default symbol currency and valid future date</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Positive - Non-default  base currency, default symbol currency  and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Positive - Non-default  base currency, default symbol currency  and valid future date</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Positive - Default base currency, one symbol currency and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Positive - Default base currency, one symbol currency and valid future date</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Positive - Default base currency, 2 non-EUR symbol currency and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Positive - Default base currency, 2 non-EUR symbol currency and valid future date</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Positive - Non-default in base currency &amp; 20 symbol currency and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Positive - Default in base currency &amp; 20 symbol currency and valid future date</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Positive Edge Case - Default base currency &amp; 30 symbol currency excluding EUR with valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Positive Edge Case - Default base currency &amp; 30 symbol currency excluding EUR and valid future date</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Positive Edge Case - Non-Default base currency, 31 symbol currency including EUR and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Positive Edge Case - Non-Default base currency, 31 symbol currency including EUR and valid future date</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Negative - Empty(Default) base currency and default symbol currency and valid date with year 1998</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Negative - Non-default  base currency, default symbol currency  and valid date with year 1997</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Negative - Default base currency, one symbol currency  valid date with year 1998</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Negative - Default base currency, 2 non-EUR symbol currency and valid date with year 1998</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Negative - Default base currency, 30 symbol currency excluding EUR and valid date with year 1998</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Negative - Non-default in base currency, 20 symbol currency and valid date with year 1998</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Negative - default base currency and an Invalid symbol-currency and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Negative - Invalid base currency and empty symbol-currency and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Negative - valid non-EUR base currency and one invalid symbol-currency  and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Negative - Default base currency, one symbol currency and Invalid date</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Positive - Empty(Default) base currency, default symbol currency and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Positive - Empty(Default) base currency, default symbol currency and valid future date</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Positive - Non-default  base currency, default symbol currency  and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Positive - Non-default  base currency, default symbol currency  and valid future date</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Positive - Default base currency, one symbol currency and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Positive - Default base currency, one symbol currency and valid future date</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Positive - Default base currency, 2 non-EUR symbol currency and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Positive - Default base currency, 2 non-EUR symbol currency and valid future date</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Positive - Non-default in base currency &amp; 20 symbol currency and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Positive - Default in base currency &amp; 20 symbol currency and valid future date</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Positive Edge Case - Default base currency &amp; 30 symbol currency excluding EUR with valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Positive Edge Case - Default base currency &amp; 30 symbol currency excluding EUR and valid future date</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Positive Edge Case - Non-Default base currency, 31 symbol currency including EUR and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Positive Edge Case - Non-Default base currency, 31 symbol currency including EUR and valid future date</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Negative - Empty(Default) base currency and default symbol currency and valid date with year 1998</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Negative - Non-default  base currency, default symbol currency  and valid date with year 1997</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Negative - Default base currency, one symbol currency  valid date with year 1998</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Negative - Default base currency, 2 non-EUR symbol currency and valid date with year 1998</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Negative - Default base currency, 30 symbol currency excluding EUR and valid date with year 1998</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Negative - Non-default in base currency, 20 symbol currency and valid date with year 1998</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Negative - default base currency and an Invalid symbol-currency and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Negative - Invalid base currency and empty symbol-currency and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Negative - valid non-EUR base currency and one invalid symbol-currency  and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>When user calls /latest API path with below details
-Negative - Default base currency, one symbol currency and Invalid date</t>
-  </si>
-  <si>
     <t>Success response should be received with:
 Status: 200</t>
   </si>
@@ -866,6 +674,198 @@
   <si>
     <t>Failed response should be received with:
 Status: 400</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive - Empty(Default) base currency, default symbol currency and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive - Empty(Default) base currency, default symbol currency and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive - Empty(Default) base currency, default symbol currency and valid future date</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive - Empty(Default) base currency, default symbol currency and valid future date</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive - Non-default  base currency, default symbol currency  and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive - Non-default  base currency, default symbol currency  and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive - Non-default  base currency, default symbol currency  and valid future date</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive - Non-default  base currency, default symbol currency  and valid future date</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive - Default base currency, one symbol currency and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive - Default base currency, one symbol currency and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive - Default base currency, one symbol currency and valid future date</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive - Default base currency, one symbol currency and valid future date</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive - Default base currency, 2 non-EUR symbol currency and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive - Default base currency, 2 non-EUR symbol currency and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive - Default base currency, 2 non-EUR symbol currency and valid future date</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive - Default base currency, 2 non-EUR symbol currency and valid future date</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive - Non-default in base currency &amp; 20 symbol currency and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive - Non-default in base currency &amp; 20 symbol currency and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive - Default in base currency &amp; 20 symbol currency and valid future date</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive - Default in base currency &amp; 20 symbol currency and valid future date</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive Edge Case - Default base currency &amp; 30 symbol currency excluding EUR with valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive Edge Case - Default base currency &amp; 30 symbol currency excluding EUR with valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive Edge Case - Default base currency &amp; 30 symbol currency excluding EUR and valid future date</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive Edge Case - Default base currency &amp; 30 symbol currency excluding EUR and valid future date</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive Edge Case - Non-Default base currency, 31 symbol currency including EUR and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive Edge Case - Non-Default base currency, 31 symbol currency including EUR and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive Edge Case - Non-Default base currency, 31 symbol currency including EUR and valid future date</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive Edge Case - Non-Default base currency, 31 symbol currency including EUR and valid future date</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Negative - Empty(Default) base currency and default symbol currency and valid date with year 1998</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Negative - Empty(Default) base currency and default symbol currency and valid date with year 1998</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Negative - Non-default  base currency, default symbol currency  and valid date with year 1997</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Negative - Non-default  base currency, default symbol currency  and valid date with year 1997</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Negative - Default base currency, one symbol currency  valid date with year 1998</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Negative - Default base currency, one symbol currency  valid date with year 1998</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Negative - Default base currency, 2 non-EUR symbol currency and valid date with year 1998</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Negative - Default base currency, 2 non-EUR symbol currency and valid date with year 1998</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Negative - Default base currency, 30 symbol currency excluding EUR and valid date with year 1998</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Negative - Default base currency, 30 symbol currency excluding EUR and valid date with year 1998</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Negative - Non-default in base currency, 20 symbol currency and valid date with year 1998</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Negative - Non-default in base currency, 20 symbol currency and valid date with year 1998</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Negative - default base currency and an Invalid symbol-currency and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Negative - default base currency and an Invalid symbol-currency and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Negative - Invalid base currency and empty symbol-currency and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Negative - Invalid base currency and empty symbol-currency and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Negative - valid non-EUR base currency and one invalid symbol-currency  and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Negative - valid non-EUR base currency and one invalid symbol-currency  and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Negative - Default base currency, one symbol currency and Invalid date</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Negative - Default base currency, one symbol currency and Invalid date</t>
   </si>
 </sst>
 </file>
@@ -2797,8 +2797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2811,7 +2811,7 @@
     <col min="6" max="6" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>160</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>162</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -2863,7 +2863,7 @@
         <v>187</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -2881,7 +2881,7 @@
         <v>188</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -2899,7 +2899,7 @@
         <v>189</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -2917,7 +2917,7 @@
         <v>190</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -2935,7 +2935,7 @@
         <v>191</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -2953,7 +2953,7 @@
         <v>192</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -2971,7 +2971,7 @@
         <v>193</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -2989,7 +2989,7 @@
         <v>194</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -3007,7 +3007,7 @@
         <v>195</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -3025,7 +3025,7 @@
         <v>196</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -3043,7 +3043,7 @@
         <v>197</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -3061,7 +3061,7 @@
         <v>198</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -3079,7 +3079,7 @@
         <v>199</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -3097,7 +3097,7 @@
         <v>200</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -3115,7 +3115,7 @@
         <v>201</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -3133,7 +3133,7 @@
         <v>202</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -3151,7 +3151,7 @@
         <v>203</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="F19" s="4"/>
     </row>
@@ -3164,8 +3164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3178,7 +3178,7 @@
     <col min="6" max="6" width="38.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>160</v>
       </c>
@@ -3203,16 +3203,16 @@
         <v>161</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>204</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="F2" s="4"/>
     </row>
@@ -3221,16 +3221,16 @@
         <v>164</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F3" s="4"/>
     </row>
@@ -3239,16 +3239,16 @@
         <v>165</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F4" s="4"/>
     </row>
@@ -3257,16 +3257,16 @@
         <v>166</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>231</v>
+        <v>214</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -3275,16 +3275,16 @@
         <v>167</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F6" s="4"/>
     </row>
@@ -3293,16 +3293,16 @@
         <v>168</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F7" s="4"/>
     </row>
@@ -3311,16 +3311,16 @@
         <v>169</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F8" s="4"/>
     </row>
@@ -3329,16 +3329,16 @@
         <v>170</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F9" s="4"/>
     </row>
@@ -3347,16 +3347,16 @@
         <v>171</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F10" s="4"/>
     </row>
@@ -3365,16 +3365,16 @@
         <v>172</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F11" s="4"/>
     </row>
@@ -3383,16 +3383,16 @@
         <v>173</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F12" s="4"/>
     </row>
@@ -3401,16 +3401,16 @@
         <v>174</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F13" s="4"/>
     </row>
@@ -3419,16 +3419,16 @@
         <v>175</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F14" s="4"/>
     </row>
@@ -3437,16 +3437,16 @@
         <v>176</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F15" s="4"/>
     </row>
@@ -3455,16 +3455,16 @@
         <v>177</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -3473,16 +3473,16 @@
         <v>178</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -3491,16 +3491,16 @@
         <v>179</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -3509,16 +3509,16 @@
         <v>180</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="F19" s="4"/>
     </row>
@@ -3527,16 +3527,16 @@
         <v>181</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -3545,16 +3545,16 @@
         <v>182</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -3563,7 +3563,7 @@
         <v>183</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
@@ -3572,7 +3572,7 @@
         <v>248</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -3581,16 +3581,16 @@
         <v>184</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="F23" s="4"/>
     </row>
@@ -3599,16 +3599,16 @@
         <v>185</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="F24" s="4"/>
     </row>
@@ -3617,16 +3617,16 @@
         <v>186</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="F25" s="4"/>
     </row>

--- a/src/test/resources/Test Cases.xlsx
+++ b/src/test/resources/Test Cases.xlsx
@@ -688,10 +688,6 @@
 Positive - Empty(Default) base currency, default symbol currency and valid future date</t>
   </si>
   <si>
-    <t>When user calls /date API path with below details
-Positive - Empty(Default) base currency, default symbol currency and valid future date</t>
-  </si>
-  <si>
     <t>User calls /date API path with below details
 Positive - Non-default  base currency, default symbol currency  and valid date in between today/last working day and 1999</t>
   </si>
@@ -866,6 +862,10 @@
   <si>
     <t>When user calls /date API path with below details
 Negative - Default base currency, one symbol currency and Invalid date</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details:
+Positive - Empty(Default) base currency, default symbol currency and valid future date</t>
   </si>
 </sst>
 </file>
@@ -3165,7 +3165,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3227,7 +3227,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>204</v>
@@ -3239,13 +3239,13 @@
         <v>165</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>211</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>212</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>204</v>
@@ -3257,13 +3257,13 @@
         <v>166</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>213</v>
-      </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>214</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>204</v>
@@ -3275,13 +3275,13 @@
         <v>167</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>215</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>216</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>204</v>
@@ -3293,13 +3293,13 @@
         <v>168</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>217</v>
-      </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>218</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>204</v>
@@ -3311,13 +3311,13 @@
         <v>169</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>219</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>220</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>204</v>
@@ -3329,13 +3329,13 @@
         <v>170</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>204</v>
@@ -3347,13 +3347,13 @@
         <v>171</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>204</v>
@@ -3365,13 +3365,13 @@
         <v>172</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>225</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>226</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>204</v>
@@ -3383,13 +3383,13 @@
         <v>173</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>204</v>
@@ -3401,13 +3401,13 @@
         <v>174</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>229</v>
-      </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>230</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>204</v>
@@ -3419,13 +3419,13 @@
         <v>175</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>231</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>232</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>204</v>
@@ -3437,13 +3437,13 @@
         <v>176</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>233</v>
-      </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>234</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>204</v>
@@ -3455,13 +3455,13 @@
         <v>177</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>205</v>
@@ -3473,13 +3473,13 @@
         <v>178</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>237</v>
-      </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>238</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>205</v>
@@ -3491,13 +3491,13 @@
         <v>179</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>239</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>240</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>205</v>
@@ -3509,13 +3509,13 @@
         <v>180</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>241</v>
-      </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>242</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>205</v>
@@ -3527,13 +3527,13 @@
         <v>181</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>244</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>205</v>
@@ -3545,13 +3545,13 @@
         <v>182</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>245</v>
-      </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>246</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>205</v>
@@ -3563,13 +3563,13 @@
         <v>183</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>247</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>248</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>205</v>
@@ -3581,13 +3581,13 @@
         <v>184</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>205</v>
@@ -3599,13 +3599,13 @@
         <v>185</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>251</v>
-      </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>252</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>205</v>
@@ -3617,13 +3617,13 @@
         <v>186</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>205</v>

--- a/src/test/resources/Test Cases.xlsx
+++ b/src/test/resources/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="22120" windowHeight="17600" tabRatio="500" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="22120" windowHeight="17600" tabRatio="500" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="256">
   <si>
     <t>HRK: 7.57,</t>
   </si>
@@ -866,6 +866,10 @@
   <si>
     <t>When user calls /date API path with below details:
 Positive - Empty(Default) base currency, default symbol currency and valid future date</t>
+  </si>
+  <si>
+    <t>User calls /latest API path with below details
+Negative Edge Case - Incorrect URL</t>
   </si>
 </sst>
 </file>
@@ -2795,10 +2799,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3155,6 +3159,23 @@
       </c>
       <c r="F19" s="4"/>
     </row>
+    <row r="20" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3164,7 +3185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/Test Cases.xlsx
+++ b/src/test/resources/Test Cases.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="22120" windowHeight="17600" tabRatio="500" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19460" tabRatio="500" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="272">
   <si>
     <t>HRK: 7.57,</t>
   </si>
@@ -664,10 +664,6 @@
 Negative Edge Case - Non-Default base currency &amp; 32 symbol currencies where 32nd symbol currency is invalid</t>
   </si>
   <si>
-    <t>Success response should be received with:
-Status: 200</t>
-  </si>
-  <si>
     <t>Failure response should be received with:
 Status: 400</t>
   </si>
@@ -870,6 +866,205 @@
   <si>
     <t>User calls /latest API path with below details
 Negative Edge Case - Incorrect URL</t>
+  </si>
+  <si>
+    <t>Success response should be received with:
+Status: 200
+date: latest working date
+base: EUR
+rates:Default currency list with rates</t>
+  </si>
+  <si>
+    <t>Success response should be received with:
+Status: 200
+date: latest working date
+base: given base currency
+rates:Total currency list with rates</t>
+  </si>
+  <si>
+    <t>Success response should be received with:
+Status: 200
+date: latest working date
+base: EUR
+rates: symbol currency with rate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Default currency list:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+MXN, ZAR, INR, THB, CNY,AUD, ILS, KRW, JPY, PLN, GBP, IDR, HUF, PHP, TRY,RUB,HKD,ISK,DKK, MYR, CAD, USD, BGN, NOK, RON, SGD, CZK, SEK, NZD, BRL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Total Currency list: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+MXN, ZAR, INR, THB, CNY,AUD, ILS, KRW, JPY, PLN, GBP, IDR, HUF, PHP, TRY,RUB,HKD,ISK,DKK, MYR, CAD, USD, BGN, NOK, RON, SGD, CZK, SEK, NZD, BRL</t>
+    </r>
+  </si>
+  <si>
+    <t>Success response should be received with:
+Status: 200
+date: latest working date
+base: given base currency
+rates: symbol currencies with rate</t>
+  </si>
+  <si>
+    <t>Success response should be received with:
+Status: 200
+date: latest working date
+base: EUR
+rates: symbol currencies with rate</t>
+  </si>
+  <si>
+    <t>Success response should be received with:
+Status: 200
+date: latest date
+base: EUR
+rates:Default currency list with rates</t>
+  </si>
+  <si>
+    <t>Success response should be received with:
+Status: 200
+date: latest date
+base: given currency
+rates:Default currency list with rates</t>
+  </si>
+  <si>
+    <t>Success response should be received with:
+Status: 200
+date: nearest working day date close to provided date
+base: given currency
+rates:Default currency list with rates</t>
+  </si>
+  <si>
+    <t>Success response should be received with:
+Status: 200
+date: nearest working day date close to provided date
+base: EUR
+rates:Default currency list with rates</t>
+  </si>
+  <si>
+    <t>Success response should be received with:
+Status: 200
+date: latest date
+base: EUR
+rates: symbol currency with rates</t>
+  </si>
+  <si>
+    <t>Success response should be received with:
+Status: 200
+date: nearest working day date close to provided date
+base: EUR
+rates: symbol currency with rates</t>
+  </si>
+  <si>
+    <t>Success response should be received with:
+Status: 200
+date: latest date
+base: EUR
+rates: symbol currencies with rates</t>
+  </si>
+  <si>
+    <t>Success response should be received with:
+Status: 200
+date: nearest working day date close to provided date
+base: given base currency
+rates: symbol currencies with rates</t>
+  </si>
+  <si>
+    <t>Success response should be received with:
+Status: 200
+date: nearest working day date close to provided date
+base: EUR
+rates: symbol currencies with rates</t>
+  </si>
+  <si>
+    <t>Success response should be received with:
+Status: 200
+date: latest date
+base: given base currency
+rates: symbol currencies with rates</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Default currency list:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+MXN, ZAR, INR, THB, CNY,AUD, ILS, KRW, JPY, PLN, GBP, IDR, HUF, PHP, TRY,RUB,HKD,ISK,DKK, MYR, CAD, USD, BGN, NOK, RON, SGD, CZK, SEK, NZD, BRL
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Total Currency list: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+MXN, ZAR, INR, THB, CNY,AUD, ILS, KRW, JPY, PLN, GBP, IDR, HUF, PHP, TRY,RUB,HKD,ISK,DKK, MYR, CAD, USD, BGN, NOK, RON, SGD, CZK, SEK, NZD, BRL, EUR</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1849,7 +2044,7 @@
   <dimension ref="J3:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="M3" sqref="M3:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2799,10 +2994,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2811,11 +3006,12 @@
     <col min="2" max="2" width="26.6640625" style="6" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="32.6640625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="59.6640625" style="6" customWidth="1"/>
     <col min="6" max="6" width="38.83203125" customWidth="1"/>
+    <col min="9" max="9" width="79" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>160</v>
       </c>
@@ -2835,7 +3031,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>161</v>
       </c>
@@ -2849,11 +3045,14 @@
         <v>162</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="I2" s="6" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>164</v>
       </c>
@@ -2867,11 +3066,11 @@
         <v>187</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>204</v>
+        <v>256</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>165</v>
       </c>
@@ -2885,11 +3084,11 @@
         <v>188</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>204</v>
+        <v>257</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>166</v>
       </c>
@@ -2903,11 +3102,11 @@
         <v>189</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>167</v>
       </c>
@@ -2921,11 +3120,11 @@
         <v>190</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>168</v>
       </c>
@@ -2939,11 +3138,11 @@
         <v>191</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>169</v>
       </c>
@@ -2957,11 +3156,11 @@
         <v>192</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>170</v>
       </c>
@@ -2975,11 +3174,11 @@
         <v>193</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>204</v>
+        <v>260</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>171</v>
       </c>
@@ -2993,11 +3192,11 @@
         <v>194</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>172</v>
       </c>
@@ -3011,11 +3210,11 @@
         <v>195</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>173</v>
       </c>
@@ -3029,11 +3228,11 @@
         <v>196</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>204</v>
+        <v>259</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>174</v>
       </c>
@@ -3047,11 +3246,11 @@
         <v>197</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>175</v>
       </c>
@@ -3065,11 +3264,11 @@
         <v>198</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>176</v>
       </c>
@@ -3083,11 +3282,11 @@
         <v>199</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>177</v>
       </c>
@@ -3101,7 +3300,7 @@
         <v>200</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -3119,7 +3318,7 @@
         <v>201</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -3137,7 +3336,7 @@
         <v>202</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -3155,7 +3354,7 @@
         <v>203</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F19" s="4"/>
     </row>
@@ -3164,17 +3363,18 @@
         <v>181</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>206</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="F20" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3183,23 +3383,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" customWidth="1"/>
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" customWidth="1"/>
-    <col min="5" max="5" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="44" customWidth="1"/>
+    <col min="5" max="5" width="64.6640625" customWidth="1"/>
     <col min="6" max="6" width="38.83203125" customWidth="1"/>
+    <col min="9" max="9" width="65.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>160</v>
       </c>
@@ -3219,435 +3420,438 @@
         <v>163</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>161</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>208</v>
-      </c>
       <c r="E2" s="5" t="s">
-        <v>204</v>
+        <v>264</v>
       </c>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+      <c r="I2" s="6" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>204</v>
+        <v>261</v>
       </c>
       <c r="F3" s="4"/>
     </row>
-    <row r="4" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>165</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>211</v>
-      </c>
       <c r="E4" s="5" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="F4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>213</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>167</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>215</v>
-      </c>
       <c r="E6" s="5" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C7" s="5">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>217</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>169</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="5">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>219</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>204</v>
+        <v>266</v>
       </c>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>170</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>221</v>
-      </c>
       <c r="E9" s="5" t="s">
-        <v>204</v>
+        <v>265</v>
       </c>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>171</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="5">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>223</v>
-      </c>
       <c r="E10" s="5" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>172</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>225</v>
-      </c>
       <c r="E11" s="5" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>173</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="C12" s="5">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="E12" s="5" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>174</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="5">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>229</v>
-      </c>
       <c r="E13" s="5" t="s">
-        <v>204</v>
+        <v>267</v>
       </c>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="144" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>204</v>
+        <v>268</v>
       </c>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>176</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C15" s="5">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>204</v>
+        <v>270</v>
       </c>
       <c r="F15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>177</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>235</v>
-      </c>
       <c r="E16" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F16" s="4"/>
     </row>
-    <row r="17" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>178</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>237</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F17" s="4"/>
     </row>
-    <row r="18" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="E18" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F18" s="4"/>
     </row>
-    <row r="19" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>180</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C19" s="5">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C19" s="5">
-        <v>1</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>241</v>
-      </c>
       <c r="E19" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F19" s="4"/>
     </row>
-    <row r="20" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="5">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>243</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>182</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="C21" s="5">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="E21" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F21" s="4"/>
     </row>
-    <row r="22" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>183</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>247</v>
-      </c>
       <c r="E22" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F22" s="4"/>
     </row>
-    <row r="23" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>184</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>249</v>
-      </c>
       <c r="E23" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" ht="128" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>185</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="E24" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>186</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="E25" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F25" s="4"/>
     </row>

--- a/src/test/resources/Test Cases.xlsx
+++ b/src/test/resources/Test Cases.xlsx
@@ -9,16 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19460" tabRatio="500" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19460" tabRatio="500" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Sheet4" sheetId="4" state="hidden" r:id="rId2"/>
-    <sheet name="Latest" sheetId="2" state="hidden" r:id="rId3"/>
-    <sheet name="Previous Date" sheetId="3" state="hidden" r:id="rId4"/>
-    <sheet name="Latest rate-API test cases" sheetId="5" r:id="rId5"/>
-    <sheet name="Past rate-API test cases" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" state="hidden" r:id="rId3"/>
+    <sheet name="Latest" sheetId="2" state="hidden" r:id="rId4"/>
+    <sheet name="Previous Date" sheetId="3" state="hidden" r:id="rId5"/>
+    <sheet name="Latest rate-API test cases" sheetId="5" r:id="rId6"/>
+    <sheet name="Past rate-API test cases" sheetId="6" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$I$1:$J$99</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="424">
   <si>
     <t>HRK: 7.57,</t>
   </si>
@@ -272,33 +276,6 @@
   </si>
   <si>
     <t>Positive - Default in base currency &amp; 20 symbol currency</t>
-  </si>
-  <si>
-    <t>MXN,</t>
-  </si>
-  <si>
-    <t>ZAR,</t>
-  </si>
-  <si>
-    <t>INR,</t>
-  </si>
-  <si>
-    <t>THB,</t>
-  </si>
-  <si>
-    <t>CNY,</t>
-  </si>
-  <si>
-    <t>AUD,</t>
-  </si>
-  <si>
-    <t>ILS,</t>
-  </si>
-  <si>
-    <t>KRW,</t>
-  </si>
-  <si>
-    <t>JPY,</t>
   </si>
   <si>
     <t>MXN,ZAR,INR,THB,CNY,AUD,ILS,KRW,JPY,RUB,PLN,GBP,IDR,HUF,PHP,TRY,HKD,ISK,DKK,MYR,CAD,USD,BGN,NOK,RON,SGD,CZK,SEK,NZD,BRL</t>
@@ -621,14 +598,6 @@
   </si>
   <si>
     <t>User calls /latest API path with below details
-Positive Edge Case - Default base currency &amp; 30 symbol currency excluding EUR</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
-Positive Edge Case - Non-Default base currency &amp; 31 symbol currency including EUR</t>
-  </si>
-  <si>
-    <t>User calls /latest API path with below details
 Positive- Non-EUR Base currency &amp; 2 non-EUR symbol currency where one of the symbol-currency is base-currency</t>
   </si>
   <si>
@@ -749,38 +718,6 @@
   </si>
   <si>
     <t>User calls /date API path with below details
-Positive Edge Case - Default base currency &amp; 30 symbol currency excluding EUR with valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>When user calls /date API path with below details
-Positive Edge Case - Default base currency &amp; 30 symbol currency excluding EUR with valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>User calls /date API path with below details
-Positive Edge Case - Default base currency &amp; 30 symbol currency excluding EUR and valid future date</t>
-  </si>
-  <si>
-    <t>When user calls /date API path with below details
-Positive Edge Case - Default base currency &amp; 30 symbol currency excluding EUR and valid future date</t>
-  </si>
-  <si>
-    <t>User calls /date API path with below details
-Positive Edge Case - Non-Default base currency, 31 symbol currency including EUR and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>When user calls /date API path with below details
-Positive Edge Case - Non-Default base currency, 31 symbol currency including EUR and valid date in between today/last working day and 1999</t>
-  </si>
-  <si>
-    <t>User calls /date API path with below details
-Positive Edge Case - Non-Default base currency, 31 symbol currency including EUR and valid future date</t>
-  </si>
-  <si>
-    <t>When user calls /date API path with below details
-Positive Edge Case - Non-Default base currency, 31 symbol currency including EUR and valid future date</t>
-  </si>
-  <si>
-    <t>User calls /date API path with below details
 Negative - Empty(Default) base currency and default symbol currency and valid date with year 1998</t>
   </si>
   <si>
@@ -810,14 +747,6 @@
   <si>
     <t>When user calls /date API path with below details
 Negative - Default base currency, 2 non-EUR symbol currency and valid date with year 1998</t>
-  </si>
-  <si>
-    <t>User calls /date API path with below details
-Negative - Default base currency, 30 symbol currency excluding EUR and valid date with year 1998</t>
-  </si>
-  <si>
-    <t>When user calls /date API path with below details
-Negative - Default base currency, 30 symbol currency excluding EUR and valid date with year 1998</t>
   </si>
   <si>
     <t>User calls /date API path with below details
@@ -1066,12 +995,1072 @@
 MXN, ZAR, INR, THB, CNY,AUD, ILS, KRW, JPY, PLN, GBP, IDR, HUF, PHP, TRY,RUB,HKD,ISK,DKK, MYR, CAD, USD, BGN, NOK, RON, SGD, CZK, SEK, NZD, BRL, EUR</t>
     </r>
   </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>ILS</t>
+  </si>
+  <si>
+    <t>KRW</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>IDR</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>TRY</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t>ISK</t>
+  </si>
+  <si>
+    <t>DKK</t>
+  </si>
+  <si>
+    <t>MYR</t>
+  </si>
+  <si>
+    <t>BGN</t>
+  </si>
+  <si>
+    <t>NOK</t>
+  </si>
+  <si>
+    <t>RON</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>CZK</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>BRL</t>
+  </si>
+  <si>
+    <t>CHF: 1.0525,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HRK": 7.5523,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MXN": 26.8331,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ZAR": 20.5019,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "INR": 82.366,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "THB": 35.03,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "CNY": 7.6455,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "AUD": 1.6943,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ILS": 3.7985,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "KRW": 1332.59,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "JPY": 116.22,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "PLN": 4.5284,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "GBP": 0.87498,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "IDR": 16875,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HUF": 355.19,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "PHP": 54.891,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "TRY": 7.5365,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "RUB": 80.3991,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "HKD": 8.3706,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "ISK": 158.6,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "DKK": 7.4577,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "MYR": 4.7093,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "CAD": 1.5173,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "USD": 1.08,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "NOK": 11.4785,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "RON": 4.8419,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SGD": 1.5396,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "CZK": 27.31,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "SEK": 10.8723,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "NZD": 1.7991,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "BRL": 6.0128</t>
+  </si>
+  <si>
+    <r>
+      <t>"CHF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"HRK"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"MXN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"ZAR"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"INR"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"THB"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"CNY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"AUD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"ILS"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"KRW"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"JPY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"PLN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"GBP"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"IDR"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"HUF"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"PHP"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"TRY"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"RUB"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"HKD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"ISK"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"DKK"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"MYR"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"CAD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"USD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"BGN"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"NOK"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"RON"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"SGD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"CZK"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"SEK"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"NZD"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color rgb="FF008000"/>
+        <rFont val="Menlo"/>
+      </rPr>
+      <t>"BRL"</t>
+    </r>
+  </si>
+  <si>
+    <t>Unsupported base currency</t>
+  </si>
+  <si>
+    <t>1999-10-08</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: MXN and Year is: 1999</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: INR and Year is: 1999</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: THB and Year is: 1999</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: CNY and Year is: 1999</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ILS and Year is: 1999</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: IDR and Year is: 1999</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: PHP and Year is: 1999</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: TRY and Year is: 1999</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: RUB and Year is: 1999</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: MYR and Year is: 1999</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: BGN and Year is: 1999</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: RON and Year is: 1999</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: BRL and Year is: 1999</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: MXN and Year is: 2000</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: INR and Year is: 2000</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: THB and Year is: 2000</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: CNY and Year is: 2000</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ILS and Year is: 2000</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: IDR and Year is: 2000</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: PHP and Year is: 2000</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: TRY and Year is: 2000</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: RUB and Year is: 2000</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: MYR and Year is: 2000</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: RON and Year is: 2000</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: BRL and Year is: 2000</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: MXN and Year is: 2001</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: INR and Year is: 2001</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: THB and Year is: 2001</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: CNY and Year is: 2001</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ILS and Year is: 2001</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: IDR and Year is: 2001</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: PHP and Year is: 2001</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: TRY and Year is: 2001</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: RUB and Year is: 2001</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: MYR and Year is: 2001</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: RON and Year is: 2001</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: BRL and Year is: 2001</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: MXN and Year is: 2002</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: INR and Year is: 2002</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: THB and Year is: 2002</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: CNY and Year is: 2002</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ILS and Year is: 2002</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: IDR and Year is: 2002</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: PHP and Year is: 2002</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: TRY and Year is: 2002</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: RUB and Year is: 2002</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: MYR and Year is: 2002</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: RON and Year is: 2002</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: BRL and Year is: 2002</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: MXN and Year is: 2003</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: INR and Year is: 2003</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: THB and Year is: 2003</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: CNY and Year is: 2003</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ILS and Year is: 2003</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: IDR and Year is: 2003</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: PHP and Year is: 2003</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: TRY and Year is: 2003</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: RUB and Year is: 2003</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: MYR and Year is: 2003</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: RON and Year is: 2003</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: BRL and Year is: 2003</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: MXN and Year is: 2004</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: INR and Year is: 2004</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: THB and Year is: 2004</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: CNY and Year is: 2004</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ILS and Year is: 2004</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: IDR and Year is: 2004</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: PHP and Year is: 2004</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: TRY and Year is: 2004</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: RUB and Year is: 2004</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: MYR and Year is: 2004</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: RON and Year is: 2004</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: BRL and Year is: 2004</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: MXN and Year is: 2005</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: INR and Year is: 2005</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ILS and Year is: 2005</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: BRL and Year is: 2005</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: MXN and Year is: 2006</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: INR and Year is: 2006</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ILS and Year is: 2006</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: BRL and Year is: 2006</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: MXN and Year is: 2007</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: INR and Year is: 2007</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ILS and Year is: 2007</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: BRL and Year is: 2007</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: INR and Year is: 2008</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ILS and Year is: 2008</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ILS and Year is: 2009</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ISK and Year is: 2009</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ILS and Year is: 2010</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ISK and Year is: 2010</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ISK and Year is: 2011</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ISK and Year is: 2012</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ISK and Year is: 2013</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ISK and Year is: 2014</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ISK and Year is: 2015</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ISK and Year is: 2016</t>
+  </si>
+  <si>
+    <t>The Unsupported base currency: ISK and Year is: 2017</t>
+  </si>
+  <si>
+    <t>Curr</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>1999-2007</t>
+  </si>
+  <si>
+    <t>1999-2004</t>
+  </si>
+  <si>
+    <t>1999-2010</t>
+  </si>
+  <si>
+    <t>1999-2008</t>
+  </si>
+  <si>
+    <t>2009-2017</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Unsupported Years</t>
+  </si>
+  <si>
+    <t>User calls /latest API path with below details
+Positive Edge Case - Default base currency &amp; 32 symbol currency excluding EUR</t>
+  </si>
+  <si>
+    <t>User calls /latest API path with below details
+Positive Edge Case - Non-Default base currency &amp; 33 symbol currency including EUR</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive Edge Case - Default base currency &amp; 32 symbol currency excluding EUR with valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive Edge Case - Default base currency &amp; 32 symbol currency excluding EUR with valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive Edge Case - Default base currency &amp; 32 symbol currency excluding EUR and valid future date</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive Edge Case - Default base currency &amp; 32 symbol currency excluding EUR and valid future date</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Negative - Default base currency, 32 symbol currency excluding EUR and valid date with year 1998</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Negative - Default base currency, 32 symbol currency excluding EUR and valid date with year 1998</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive Edge Case - Non-Default base currency, 33 symbol currency including EUR and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive Edge Case - Non-Default base currency, 33 symbol currency including EUR and valid date in between today/last working day and 1999</t>
+  </si>
+  <si>
+    <t>User calls /date API path with below details
+Positive Edge Case - Non-Default base currency, 33 symbol currency including EUR and valid future date</t>
+  </si>
+  <si>
+    <t>When user calls /date API path with below details
+Positive Edge Case - Non-Default base currency, 33 symbol currency including EUR and valid future date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1108,6 +2097,24 @@
       <sz val="9"/>
       <color rgb="FFC37522"/>
       <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF008000"/>
+      <name val="Menlo"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1172,7 +2179,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1192,8 +2199,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1211,8 +2226,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1222,6 +2244,10 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1231,6 +2257,10 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2041,225 +3071,631 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J3:M32"/>
+  <dimension ref="B1:T48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3:M32"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="10:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>271</v>
+      </c>
+      <c r="S1">
+        <f>LEN(T1)</f>
+        <v>191</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="10:20" x14ac:dyDescent="0.2">
+      <c r="Q2" t="s">
+        <v>272</v>
+      </c>
+      <c r="S2">
+        <f>S1/6</f>
+        <v>31.833333333333332</v>
+      </c>
+    </row>
+    <row r="3" spans="10:20" x14ac:dyDescent="0.2">
       <c r="M3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="4" spans="10:13" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+      <c r="N3" t="str">
+        <f>CONCATENATE(O3,M3,O3,",")</f>
+        <v>"MXN",</v>
+      </c>
+      <c r="O3" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="10:20" x14ac:dyDescent="0.2">
       <c r="M4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="10:13" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N32" si="0">CONCATENATE(O4,M4,O4,",")</f>
+        <v>"ZAR",</v>
+      </c>
+      <c r="O4" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="5" spans="10:20" x14ac:dyDescent="0.2">
       <c r="M5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="10:13" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="0"/>
+        <v>"INR",</v>
+      </c>
+      <c r="O5" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" spans="10:20" x14ac:dyDescent="0.2">
       <c r="M6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="7" spans="10:13" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="0"/>
+        <v>"THB",</v>
+      </c>
+      <c r="O6" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="10:20" x14ac:dyDescent="0.2">
       <c r="M7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="10:13" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="0"/>
+        <v>"CNY",</v>
+      </c>
+      <c r="O7" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="10:20" x14ac:dyDescent="0.2">
       <c r="M8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="10:13" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="0"/>
+        <v>"AUD",</v>
+      </c>
+      <c r="O8" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J9" t="s">
         <v>57</v>
       </c>
       <c r="M9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="10" spans="10:13" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="0"/>
+        <v>"ILS",</v>
+      </c>
+      <c r="O9" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="10" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J10" t="s">
         <v>58</v>
       </c>
       <c r="M10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="11" spans="10:13" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="0"/>
+        <v>"KRW",</v>
+      </c>
+      <c r="O10" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J11" t="s">
         <v>59</v>
       </c>
       <c r="M11" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="10:13" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="0"/>
+        <v>"JPY",</v>
+      </c>
+      <c r="O11" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="12" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
         <v>60</v>
       </c>
       <c r="M12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="10:13" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="0"/>
+        <v>"PLN",</v>
+      </c>
+      <c r="O12" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J13" t="s">
         <v>61</v>
       </c>
       <c r="M13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="10:13" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="0"/>
+        <v>"GBP",</v>
+      </c>
+      <c r="O13" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="14" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J14" t="s">
         <v>62</v>
       </c>
       <c r="M14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="10:13" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="0"/>
+        <v>"IDR",</v>
+      </c>
+      <c r="O14" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="15" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J15" t="s">
         <v>63</v>
       </c>
       <c r="M15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="10:13" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="0"/>
+        <v>"HUF",</v>
+      </c>
+      <c r="O15" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="10:20" x14ac:dyDescent="0.2">
       <c r="J16" t="s">
         <v>64</v>
       </c>
       <c r="M16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="0"/>
+        <v>"PHP",</v>
+      </c>
+      <c r="O16" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J17" t="s">
         <v>65</v>
       </c>
       <c r="M17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="10:13" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="0"/>
+        <v>"TRY",</v>
+      </c>
+      <c r="O17" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J18" t="s">
         <v>66</v>
       </c>
       <c r="M18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="0"/>
+        <v>"RUB",</v>
+      </c>
+      <c r="O18" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J19" t="s">
         <v>67</v>
       </c>
       <c r="M19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="0"/>
+        <v>"HKD",</v>
+      </c>
+      <c r="O19" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="20" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J20" t="s">
         <v>68</v>
       </c>
       <c r="M20" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="0"/>
+        <v>"ISK",</v>
+      </c>
+      <c r="O20" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J21" t="s">
         <v>69</v>
       </c>
       <c r="M21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="0"/>
+        <v>"DKK",</v>
+      </c>
+      <c r="O21" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J22" t="s">
         <v>70</v>
       </c>
       <c r="M22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="0"/>
+        <v>"MYR",</v>
+      </c>
+      <c r="O22" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J23" t="s">
         <v>71</v>
       </c>
       <c r="M23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="0"/>
+        <v>"CAD",</v>
+      </c>
+      <c r="O23" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J24" t="s">
         <v>72</v>
       </c>
       <c r="M24" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="10:13" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="0"/>
+        <v>"USD",</v>
+      </c>
+      <c r="O24" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J25" t="s">
         <v>73</v>
       </c>
       <c r="M25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="10:13" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="0"/>
+        <v>"BGN",</v>
+      </c>
+      <c r="O25" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J26" t="s">
         <v>74</v>
       </c>
       <c r="M26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="10:13" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="0"/>
+        <v>"NOK",</v>
+      </c>
+      <c r="O26" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J27" t="s">
         <v>75</v>
       </c>
       <c r="M27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="10:13" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="0"/>
+        <v>"RON",</v>
+      </c>
+      <c r="O27" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J28" t="s">
         <v>76</v>
       </c>
       <c r="M28" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="10:13" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="0"/>
+        <v>"SGD",</v>
+      </c>
+      <c r="O28" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17" x14ac:dyDescent="0.2">
       <c r="J29" t="s">
         <v>77</v>
       </c>
       <c r="M29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="10:13" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="0"/>
+        <v>"CZK",</v>
+      </c>
+      <c r="O29" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17" x14ac:dyDescent="0.2">
       <c r="M30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="10:13" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="0"/>
+        <v>"SEK",</v>
+      </c>
+      <c r="O30" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17" x14ac:dyDescent="0.2">
       <c r="M31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="10:13" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="0"/>
+        <v>"NZD",</v>
+      </c>
+      <c r="O31" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17" x14ac:dyDescent="0.2">
       <c r="M32" t="s">
-        <v>77</v>
+        <v>270</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="0"/>
+        <v>"BRL",</v>
+      </c>
+      <c r="O32" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>303</v>
+      </c>
+      <c r="C34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2269,6 +3705,1436 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="G1:L127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H115" sqref="H115"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="46.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="I1" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="2" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>305</v>
+      </c>
+      <c r="I2" t="str">
+        <f>MID(G2,32,3)</f>
+        <v>MXN</v>
+      </c>
+      <c r="J2" t="str">
+        <f>MID(G2,49,4)</f>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="3" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I66" si="0">MID(G3,32,3)</f>
+        <v>INR</v>
+      </c>
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J66" si="1">MID(G3,49,4)</f>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="4" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>307</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="0"/>
+        <v>THB</v>
+      </c>
+      <c r="J4" t="str">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="5" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>308</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="0"/>
+        <v>CNY</v>
+      </c>
+      <c r="J5" t="str">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="6" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>309</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="0"/>
+        <v>ILS</v>
+      </c>
+      <c r="J6" t="str">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="7" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>310</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="0"/>
+        <v>IDR</v>
+      </c>
+      <c r="J7" t="str">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="8" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>311</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>PHP</v>
+      </c>
+      <c r="J8" t="str">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="9" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>312</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="0"/>
+        <v>TRY</v>
+      </c>
+      <c r="J9" t="str">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="10" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>313</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="0"/>
+        <v>RUB</v>
+      </c>
+      <c r="J10" t="str">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="11" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>314</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="0"/>
+        <v>MYR</v>
+      </c>
+      <c r="J11" t="str">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="12" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>315</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="0"/>
+        <v>BGN</v>
+      </c>
+      <c r="J12" t="str">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="13" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>316</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="0"/>
+        <v>RON</v>
+      </c>
+      <c r="J13" t="str">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="14" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>317</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="0"/>
+        <v>BRL</v>
+      </c>
+      <c r="J14" t="str">
+        <f t="shared" si="1"/>
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="15" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>318</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="0"/>
+        <v>MXN</v>
+      </c>
+      <c r="J15" t="str">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>319</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="0"/>
+        <v>INR</v>
+      </c>
+      <c r="J16" t="str">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>320</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="0"/>
+        <v>THB</v>
+      </c>
+      <c r="J17" t="str">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>321</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="0"/>
+        <v>CNY</v>
+      </c>
+      <c r="J18" t="str">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>322</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="0"/>
+        <v>ILS</v>
+      </c>
+      <c r="J19" t="str">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>323</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="0"/>
+        <v>IDR</v>
+      </c>
+      <c r="J20" t="str">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>324</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="0"/>
+        <v>PHP</v>
+      </c>
+      <c r="J21" t="str">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>325</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="0"/>
+        <v>TRY</v>
+      </c>
+      <c r="J22" t="str">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>326</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="0"/>
+        <v>RUB</v>
+      </c>
+      <c r="J23" t="str">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="24" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>327</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="0"/>
+        <v>MYR</v>
+      </c>
+      <c r="J24" t="str">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="25" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>328</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="0"/>
+        <v>RON</v>
+      </c>
+      <c r="J25" t="str">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="26" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>329</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="0"/>
+        <v>BRL</v>
+      </c>
+      <c r="J26" t="str">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>330</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="0"/>
+        <v>MXN</v>
+      </c>
+      <c r="J27" t="str">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="28" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>331</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>INR</v>
+      </c>
+      <c r="J28" t="str">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="29" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>332</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="0"/>
+        <v>THB</v>
+      </c>
+      <c r="J29" t="str">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="30" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>333</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="0"/>
+        <v>CNY</v>
+      </c>
+      <c r="J30" t="str">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="31" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>334</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="0"/>
+        <v>ILS</v>
+      </c>
+      <c r="J31" t="str">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="32" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>335</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>IDR</v>
+      </c>
+      <c r="J32" t="str">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="33" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>336</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="0"/>
+        <v>PHP</v>
+      </c>
+      <c r="J33" t="str">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="34" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>337</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="0"/>
+        <v>TRY</v>
+      </c>
+      <c r="J34" t="str">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="35" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>338</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="0"/>
+        <v>RUB</v>
+      </c>
+      <c r="J35" t="str">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="36" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>339</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="0"/>
+        <v>MYR</v>
+      </c>
+      <c r="J36" t="str">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="37" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>340</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="0"/>
+        <v>RON</v>
+      </c>
+      <c r="J37" t="str">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="38" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>341</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="0"/>
+        <v>BRL</v>
+      </c>
+      <c r="J38" t="str">
+        <f t="shared" si="1"/>
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="39" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>342</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="0"/>
+        <v>MXN</v>
+      </c>
+      <c r="J39" t="str">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="40" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>343</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="0"/>
+        <v>INR</v>
+      </c>
+      <c r="J40" t="str">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="41" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>344</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="0"/>
+        <v>THB</v>
+      </c>
+      <c r="J41" t="str">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="42" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>345</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="0"/>
+        <v>CNY</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="43" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>346</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="0"/>
+        <v>ILS</v>
+      </c>
+      <c r="J43" t="str">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="44" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>347</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="0"/>
+        <v>IDR</v>
+      </c>
+      <c r="J44" t="str">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="45" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>348</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="0"/>
+        <v>PHP</v>
+      </c>
+      <c r="J45" t="str">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="46" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>349</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="0"/>
+        <v>TRY</v>
+      </c>
+      <c r="J46" t="str">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="47" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>350</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="0"/>
+        <v>RUB</v>
+      </c>
+      <c r="J47" t="str">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="48" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>351</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="0"/>
+        <v>MYR</v>
+      </c>
+      <c r="J48" t="str">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="49" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>352</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="0"/>
+        <v>RON</v>
+      </c>
+      <c r="J49" t="str">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="50" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>353</v>
+      </c>
+      <c r="I50" t="str">
+        <f t="shared" si="0"/>
+        <v>BRL</v>
+      </c>
+      <c r="J50" t="str">
+        <f t="shared" si="1"/>
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="51" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>354</v>
+      </c>
+      <c r="I51" t="str">
+        <f t="shared" si="0"/>
+        <v>MXN</v>
+      </c>
+      <c r="J51" t="str">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="52" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>355</v>
+      </c>
+      <c r="I52" t="str">
+        <f t="shared" si="0"/>
+        <v>INR</v>
+      </c>
+      <c r="J52" t="str">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="53" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>356</v>
+      </c>
+      <c r="I53" t="str">
+        <f t="shared" si="0"/>
+        <v>THB</v>
+      </c>
+      <c r="J53" t="str">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="54" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>357</v>
+      </c>
+      <c r="I54" t="str">
+        <f t="shared" si="0"/>
+        <v>CNY</v>
+      </c>
+      <c r="J54" t="str">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="55" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>358</v>
+      </c>
+      <c r="I55" t="str">
+        <f t="shared" si="0"/>
+        <v>ILS</v>
+      </c>
+      <c r="J55" t="str">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="56" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>359</v>
+      </c>
+      <c r="I56" t="str">
+        <f t="shared" si="0"/>
+        <v>IDR</v>
+      </c>
+      <c r="J56" t="str">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="57" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>360</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>PHP</v>
+      </c>
+      <c r="J57" t="str">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="58" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>361</v>
+      </c>
+      <c r="I58" t="str">
+        <f t="shared" si="0"/>
+        <v>TRY</v>
+      </c>
+      <c r="J58" t="str">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="59" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>362</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="0"/>
+        <v>RUB</v>
+      </c>
+      <c r="J59" t="str">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="60" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>363</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="0"/>
+        <v>MYR</v>
+      </c>
+      <c r="J60" t="str">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="61" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>364</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>RON</v>
+      </c>
+      <c r="J61" t="str">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="62" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>365</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>BRL</v>
+      </c>
+      <c r="J62" t="str">
+        <f t="shared" si="1"/>
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="63" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>366</v>
+      </c>
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>MXN</v>
+      </c>
+      <c r="J63" t="str">
+        <f t="shared" si="1"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="64" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>367</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>INR</v>
+      </c>
+      <c r="J64" t="str">
+        <f t="shared" si="1"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="65" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>368</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>THB</v>
+      </c>
+      <c r="J65" t="str">
+        <f t="shared" si="1"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="66" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>369</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="0"/>
+        <v>CNY</v>
+      </c>
+      <c r="J66" t="str">
+        <f t="shared" si="1"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="67" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>370</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" ref="I67:I99" si="2">MID(G67,32,3)</f>
+        <v>ILS</v>
+      </c>
+      <c r="J67" t="str">
+        <f t="shared" ref="J67:J99" si="3">MID(G67,49,4)</f>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="68" spans="7:10" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>371</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="2"/>
+        <v>IDR</v>
+      </c>
+      <c r="J68" t="str">
+        <f t="shared" si="3"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="69" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>372</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="2"/>
+        <v>PHP</v>
+      </c>
+      <c r="J69" t="str">
+        <f t="shared" si="3"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="70" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>373</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="2"/>
+        <v>TRY</v>
+      </c>
+      <c r="J70" t="str">
+        <f t="shared" si="3"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="71" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>374</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="2"/>
+        <v>RUB</v>
+      </c>
+      <c r="J71" t="str">
+        <f t="shared" si="3"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="72" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>375</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="2"/>
+        <v>MYR</v>
+      </c>
+      <c r="J72" t="str">
+        <f t="shared" si="3"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="73" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>376</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="2"/>
+        <v>RON</v>
+      </c>
+      <c r="J73" t="str">
+        <f t="shared" si="3"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="74" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>377</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="2"/>
+        <v>BRL</v>
+      </c>
+      <c r="J74" t="str">
+        <f t="shared" si="3"/>
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="75" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>378</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="2"/>
+        <v>MXN</v>
+      </c>
+      <c r="J75" t="str">
+        <f t="shared" si="3"/>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="76" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>379</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="2"/>
+        <v>INR</v>
+      </c>
+      <c r="J76" t="str">
+        <f t="shared" si="3"/>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="77" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>380</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="2"/>
+        <v>ILS</v>
+      </c>
+      <c r="J77" t="str">
+        <f t="shared" si="3"/>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="78" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>381</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="2"/>
+        <v>BRL</v>
+      </c>
+      <c r="J78" t="str">
+        <f t="shared" si="3"/>
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="79" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>382</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="2"/>
+        <v>MXN</v>
+      </c>
+      <c r="J79" t="str">
+        <f t="shared" si="3"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="80" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>383</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="2"/>
+        <v>INR</v>
+      </c>
+      <c r="J80" t="str">
+        <f t="shared" si="3"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="81" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>384</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="2"/>
+        <v>ILS</v>
+      </c>
+      <c r="J81" t="str">
+        <f t="shared" si="3"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="82" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>385</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="2"/>
+        <v>BRL</v>
+      </c>
+      <c r="J82" t="str">
+        <f t="shared" si="3"/>
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="83" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>386</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="2"/>
+        <v>MXN</v>
+      </c>
+      <c r="J83" t="str">
+        <f t="shared" si="3"/>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="84" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>387</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="2"/>
+        <v>INR</v>
+      </c>
+      <c r="J84" t="str">
+        <f t="shared" si="3"/>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="85" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>388</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="2"/>
+        <v>ILS</v>
+      </c>
+      <c r="J85" t="str">
+        <f t="shared" si="3"/>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="86" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>389</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="2"/>
+        <v>BRL</v>
+      </c>
+      <c r="J86" t="str">
+        <f t="shared" si="3"/>
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="87" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>390</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="2"/>
+        <v>INR</v>
+      </c>
+      <c r="J87" t="str">
+        <f t="shared" si="3"/>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="88" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>391</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="2"/>
+        <v>ILS</v>
+      </c>
+      <c r="J88" t="str">
+        <f t="shared" si="3"/>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="89" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>392</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="2"/>
+        <v>ILS</v>
+      </c>
+      <c r="J89" t="str">
+        <f t="shared" si="3"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="90" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>393</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="2"/>
+        <v>ISK</v>
+      </c>
+      <c r="J90" t="str">
+        <f t="shared" si="3"/>
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="91" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>394</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="2"/>
+        <v>ILS</v>
+      </c>
+      <c r="J91" t="str">
+        <f t="shared" si="3"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="92" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>395</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="2"/>
+        <v>ISK</v>
+      </c>
+      <c r="J92" t="str">
+        <f t="shared" si="3"/>
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="93" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>396</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="2"/>
+        <v>ISK</v>
+      </c>
+      <c r="J93" t="str">
+        <f t="shared" si="3"/>
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="94" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>397</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="2"/>
+        <v>ISK</v>
+      </c>
+      <c r="J94" t="str">
+        <f t="shared" si="3"/>
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="95" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
+        <v>398</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="2"/>
+        <v>ISK</v>
+      </c>
+      <c r="J95" t="str">
+        <f t="shared" si="3"/>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="96" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>399</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="2"/>
+        <v>ISK</v>
+      </c>
+      <c r="J96" t="str">
+        <f t="shared" si="3"/>
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="97" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>400</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="2"/>
+        <v>ISK</v>
+      </c>
+      <c r="J97" t="str">
+        <f t="shared" si="3"/>
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="98" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>401</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="2"/>
+        <v>ISK</v>
+      </c>
+      <c r="J98" t="str">
+        <f t="shared" si="3"/>
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="99" spans="7:10" hidden="1" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>402</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="2"/>
+        <v>ISK</v>
+      </c>
+      <c r="J99" t="str">
+        <f t="shared" si="3"/>
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="113" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K113" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="L113" s="11" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="114" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K114" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="L114" s="12" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="115" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K115" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L115" s="12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="116" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K116" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="117" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K117" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="118" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K118" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="119" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K119" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="120" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K120" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="121" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K121" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="122" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K122" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="123" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K123" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="124" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K124" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="L124" s="13">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="125" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K125" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="126" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K126" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="127" spans="11:12" x14ac:dyDescent="0.2">
+      <c r="K127" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="I1:J99">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="IDR"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
@@ -2405,7 +5271,7 @@
         <v>79</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
@@ -2420,7 +5286,7 @@
         <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
@@ -2435,10 +5301,10 @@
         <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -2447,13 +5313,13 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E14" t="str">
         <f>CONCATENATE("| ",B14," | ",C14," | ",D14," | ")</f>
@@ -2462,13 +5328,13 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C15" t="s">
         <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="E15" t="str">
         <f>CONCATENATE("| ",B15," | ",C15," | ",D15," | ")</f>
@@ -2483,7 +5349,7 @@
         <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -2498,7 +5364,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -2513,10 +5379,10 @@
         <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -2531,10 +5397,10 @@
         <v>48</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
@@ -2549,10 +5415,10 @@
         <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
@@ -2564,13 +5430,13 @@
         <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C21" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
@@ -2582,13 +5448,13 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
@@ -2601,7 +5467,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F28"/>
   <sheetViews>
@@ -2629,15 +5495,15 @@
         <v>35</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F5" t="str">
         <f>CONCATENATE("| ",B5,"| ",C5," | ",D5," | ",E5," | ")</f>
@@ -2646,10 +5512,10 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ref="F6:F28" si="0">CONCATENATE("| ",B6,"| ",C6," | ",D6," | ",E6," | ")</f>
@@ -2658,13 +5524,13 @@
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="C7" t="s">
         <v>52</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -2673,13 +5539,13 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -2688,13 +5554,13 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -2703,13 +5569,13 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="D10" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -2718,13 +5584,13 @@
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D11" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
@@ -2733,13 +5599,13 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -2748,16 +5614,16 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C13" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="D13" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
@@ -2766,13 +5632,13 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
@@ -2781,13 +5647,13 @@
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -2796,13 +5662,13 @@
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -2811,16 +5677,16 @@
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D17" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -2829,16 +5695,16 @@
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="D18" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -2847,10 +5713,10 @@
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -2859,10 +5725,10 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -2871,10 +5737,10 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -2883,10 +5749,10 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -2895,13 +5761,13 @@
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D23" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -2910,16 +5776,16 @@
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="D24" t="s">
         <v>78</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -2928,13 +5794,13 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
@@ -2943,13 +5809,13 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -2958,16 +5824,16 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="D27" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -2976,10 +5842,10 @@
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -2992,12 +5858,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3013,366 +5879,366 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>255</v>
+        <v>234</v>
       </c>
       <c r="F2" s="4"/>
       <c r="I2" s="6" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>257</v>
+        <v>236</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>193</v>
+        <v>412</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>193</v>
+        <v>412</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>194</v>
+        <v>413</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>194</v>
+        <v>413</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="128" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="112" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -3381,12 +6247,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3402,456 +6268,456 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
       <c r="F2" s="4"/>
       <c r="I2" s="6" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C3" s="5">
         <v>1</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>253</v>
+        <v>232</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C4" s="5">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
       <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C5" s="5">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C7" s="5">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C8" s="5">
         <v>1</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>266</v>
+        <v>245</v>
       </c>
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C9" s="5">
         <v>1</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C10" s="5">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C11" s="5">
         <v>1</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>225</v>
+        <v>414</v>
       </c>
       <c r="C12" s="5">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>226</v>
+        <v>415</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>269</v>
+        <v>248</v>
       </c>
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>227</v>
+        <v>416</v>
       </c>
       <c r="C13" s="5">
         <v>1</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>228</v>
+        <v>417</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>267</v>
+        <v>246</v>
       </c>
       <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>229</v>
+        <v>420</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>230</v>
+        <v>421</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>268</v>
+        <v>247</v>
       </c>
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:9" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>231</v>
+        <v>422</v>
       </c>
       <c r="C15" s="5">
         <v>1</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>232</v>
+        <v>423</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>270</v>
+        <v>249</v>
       </c>
       <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="C16" s="5">
         <v>1</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="C17" s="5">
         <v>1</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="C18" s="5">
         <v>1</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
       <c r="C19" s="5">
         <v>1</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>241</v>
+        <v>418</v>
       </c>
       <c r="C20" s="5">
         <v>1</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>242</v>
+        <v>419</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>243</v>
+        <v>222</v>
       </c>
       <c r="C21" s="5">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>245</v>
+        <v>224</v>
       </c>
       <c r="C22" s="5">
         <v>1</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="C23" s="5">
         <v>1</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>249</v>
+        <v>228</v>
       </c>
       <c r="C24" s="5">
         <v>1</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>250</v>
+        <v>229</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>251</v>
+        <v>230</v>
       </c>
       <c r="C25" s="5">
         <v>1</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="F25" s="4"/>
     </row>
